--- a/data.xlsx
+++ b/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="370">
   <si>
     <t>Всероссийская олимпиада школьников «Высшая проба»</t>
   </si>
@@ -1052,6 +1052,84 @@
   </si>
   <si>
     <t>14.02</t>
+  </si>
+  <si>
+    <t>short_name</t>
+  </si>
+  <si>
+    <t>Технокубок</t>
+  </si>
+  <si>
+    <t>Innopolis Open</t>
+  </si>
+  <si>
+    <t>Вузак по информатике</t>
+  </si>
+  <si>
+    <t>Олимпиада школьников по инфе и проге</t>
+  </si>
+  <si>
+    <t>Высшая проба</t>
+  </si>
+  <si>
+    <t>Бельченок</t>
+  </si>
+  <si>
+    <t>Газпром</t>
+  </si>
+  <si>
+    <t>Ломоносов</t>
+  </si>
+  <si>
+    <t>Шаг в будущее</t>
+  </si>
+  <si>
+    <t>Гранит науки</t>
+  </si>
+  <si>
+    <t>Изумруд</t>
+  </si>
+  <si>
+    <t>Когнетивка</t>
+  </si>
+  <si>
+    <t>Открытая олимпиада школьников по проге</t>
+  </si>
+  <si>
+    <t>Олимпиада школьников СПбГУ</t>
+  </si>
+  <si>
+    <t>Олимпиада КФУ</t>
+  </si>
+  <si>
+    <t>Пироговская олимпиада</t>
+  </si>
+  <si>
+    <t>Будущие исследователи - будущее науки</t>
+  </si>
+  <si>
+    <t>Олимпиада Павлова</t>
+  </si>
+  <si>
+    <t>Будущее Сибири</t>
+  </si>
+  <si>
+    <t>Олимпиада ОРМО</t>
+  </si>
+  <si>
+    <t>Росатом</t>
+  </si>
+  <si>
+    <t>Ведомственные обр орги</t>
+  </si>
+  <si>
+    <t>Твое призвание - финансист</t>
+  </si>
+  <si>
+    <t>Олимпиада Верченко</t>
+  </si>
+  <si>
+    <t>Объединенная межвуз олимпиада</t>
   </si>
 </sst>
 </file>
@@ -1413,18 +1491,19 @@
   <dimension ref="A1:V83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A43" sqref="A43:A83"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="8.88671875" style="2"/>
-    <col min="3" max="3" width="37.21875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="36.77734375" style="2" customWidth="1"/>
     <col min="4" max="4" width="29" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.88671875" style="2" customWidth="1"/>
     <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
-    <col min="7" max="13" width="14.109375" customWidth="1"/>
+    <col min="7" max="7" width="36.77734375" style="2" customWidth="1"/>
+    <col min="8" max="13" width="14.109375" customWidth="1"/>
     <col min="14" max="14" width="12.77734375" customWidth="1"/>
     <col min="17" max="22" width="10.6640625" customWidth="1"/>
   </cols>
@@ -1447,6 +1526,9 @@
       </c>
       <c r="F1" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>344</v>
       </c>
       <c r="H1" s="1"/>
       <c r="J1" s="1"/>
@@ -1476,6 +1558,9 @@
       <c r="F2" s="2">
         <v>1</v>
       </c>
+      <c r="G2" s="2" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="3" spans="1:22" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
@@ -1496,6 +1581,9 @@
       <c r="F3" s="2">
         <v>1</v>
       </c>
+      <c r="G3" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:22" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -1516,6 +1604,9 @@
       <c r="F4" s="2">
         <v>1</v>
       </c>
+      <c r="G4" s="2" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="5" spans="1:22" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
@@ -1536,6 +1627,9 @@
       <c r="F5" s="2">
         <v>1</v>
       </c>
+      <c r="G5" s="2" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="6" spans="1:22" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
@@ -1556,6 +1650,9 @@
       <c r="F6" s="2">
         <v>1</v>
       </c>
+      <c r="G6" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:22" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
@@ -1576,6 +1673,9 @@
       <c r="F7" s="2">
         <v>1</v>
       </c>
+      <c r="G7" s="2" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="8" spans="1:22" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
@@ -1596,6 +1696,9 @@
       <c r="F8" s="2">
         <v>1</v>
       </c>
+      <c r="G8" s="2" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="9" spans="1:22" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
@@ -1616,6 +1719,9 @@
       <c r="F9" s="2">
         <v>1</v>
       </c>
+      <c r="G9" s="2" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="10" spans="1:22" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
@@ -1636,6 +1742,9 @@
       <c r="F10" s="2">
         <v>1</v>
       </c>
+      <c r="G10" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:22" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
@@ -1656,6 +1765,9 @@
       <c r="F11" s="2">
         <v>1</v>
       </c>
+      <c r="G11" s="2" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="12" spans="1:22" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
@@ -1676,6 +1788,9 @@
       <c r="F12" s="2">
         <v>2</v>
       </c>
+      <c r="G12" s="2" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="13" spans="1:22" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
@@ -1696,6 +1811,9 @@
       <c r="F13" s="2">
         <v>2</v>
       </c>
+      <c r="G13" s="2" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="14" spans="1:22" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
@@ -1716,6 +1834,9 @@
       <c r="F14" s="2">
         <v>3</v>
       </c>
+      <c r="G14" s="2" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="15" spans="1:22" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
@@ -1736,6 +1857,9 @@
       <c r="F15" s="2">
         <v>3</v>
       </c>
+      <c r="G15" s="2" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="16" spans="1:22" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
@@ -1756,8 +1880,11 @@
       <c r="F16" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G16" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1776,8 +1903,11 @@
       <c r="F17" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1796,8 +1926,11 @@
       <c r="F18" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G18" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1816,8 +1949,11 @@
       <c r="F19" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G19" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1836,8 +1972,11 @@
       <c r="F20" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G20" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1856,8 +1995,11 @@
       <c r="F21" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G21" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1876,8 +2018,11 @@
       <c r="F22" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G22" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1896,8 +2041,11 @@
       <c r="F23" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G23" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1916,8 +2064,11 @@
       <c r="F24" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G24" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1936,8 +2087,11 @@
       <c r="F25" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G25" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1956,8 +2110,11 @@
       <c r="F26" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G26" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1976,8 +2133,11 @@
       <c r="F27" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1996,8 +2156,11 @@
       <c r="F28" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G28" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -2016,8 +2179,11 @@
       <c r="F29" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G29" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -2036,8 +2202,11 @@
       <c r="F30" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G30" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -2056,8 +2225,11 @@
       <c r="F31" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G31" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -2076,8 +2248,11 @@
       <c r="F32" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G32" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -2096,8 +2271,11 @@
       <c r="F33" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G33" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -2116,8 +2294,11 @@
       <c r="F34" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G34" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -2136,8 +2317,11 @@
       <c r="F35" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G35" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -2156,8 +2340,11 @@
       <c r="F36" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G36" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -2176,8 +2363,11 @@
       <c r="F37" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G37" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -2196,8 +2386,11 @@
       <c r="F38" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G38" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -2216,8 +2409,11 @@
       <c r="F39" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G39" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -2236,8 +2432,11 @@
       <c r="F40" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G40" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -2256,8 +2455,11 @@
       <c r="F41" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G41" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -2276,8 +2478,11 @@
       <c r="F42" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G42" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -2296,8 +2501,11 @@
       <c r="F43" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G43" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -2316,8 +2524,11 @@
       <c r="F44" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G44" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -2336,8 +2547,11 @@
       <c r="F45" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G45" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -2356,8 +2570,11 @@
       <c r="F46" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G46" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -2376,8 +2593,11 @@
       <c r="F47" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G47" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -2396,8 +2616,11 @@
       <c r="F48" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G48" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -2416,8 +2639,11 @@
       <c r="F49" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G49" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -2436,8 +2662,11 @@
       <c r="F50" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G50" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -2456,8 +2685,11 @@
       <c r="F51" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G51" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -2476,8 +2708,11 @@
       <c r="F52" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G52" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -2496,8 +2731,11 @@
       <c r="F53" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G53" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -2516,8 +2754,11 @@
       <c r="F54" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G54" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -2536,8 +2777,11 @@
       <c r="F55" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G55" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -2556,8 +2800,11 @@
       <c r="F56" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G56" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -2576,8 +2823,11 @@
       <c r="F57" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G57" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -2596,8 +2846,11 @@
       <c r="F58" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G58" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -2616,8 +2869,11 @@
       <c r="F59" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G59" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -2636,8 +2892,11 @@
       <c r="F60" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G60" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -2656,8 +2915,11 @@
       <c r="F61" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G61" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -2676,8 +2938,11 @@
       <c r="F62" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G62" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -2696,8 +2961,11 @@
       <c r="F63" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G63" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -2716,8 +2984,11 @@
       <c r="F64" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G64" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -2736,8 +3007,11 @@
       <c r="F65" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G65" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -2756,8 +3030,11 @@
       <c r="F66" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G66" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -2776,8 +3053,11 @@
       <c r="F67" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G67" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -2796,8 +3076,11 @@
       <c r="F68" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G68" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -2816,8 +3099,11 @@
       <c r="F69" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G69" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -2836,8 +3122,11 @@
       <c r="F70" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G70" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -2856,8 +3145,11 @@
       <c r="F71" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G71" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -2876,8 +3168,11 @@
       <c r="F72" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G72" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -2896,8 +3191,11 @@
       <c r="F73" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G73" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -2916,8 +3214,11 @@
       <c r="F74" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G74" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -2936,8 +3237,11 @@
       <c r="F75" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G75" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -2956,8 +3260,11 @@
       <c r="F76" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G76" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -2976,8 +3283,11 @@
       <c r="F77" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G77" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -2996,8 +3306,11 @@
       <c r="F78" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G78" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -3016,8 +3329,11 @@
       <c r="F79" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G79" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -3036,8 +3352,11 @@
       <c r="F80" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G80" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -3056,8 +3375,11 @@
       <c r="F81" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G81" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -3076,8 +3398,11 @@
       <c r="F82" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G82" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -3095,6 +3420,9 @@
       </c>
       <c r="F83" s="2">
         <v>3</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>360</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="387">
   <si>
     <t>Всероссийская олимпиада школьников «Высшая проба»</t>
   </si>
@@ -1130,6 +1130,57 @@
   </si>
   <si>
     <t>Объединенная межвуз олимпиада</t>
+  </si>
+  <si>
+    <t>Тестовая 1</t>
+  </si>
+  <si>
+    <t>Тестовая 2</t>
+  </si>
+  <si>
+    <t>https://fiit-urfu.ru/</t>
+  </si>
+  <si>
+    <t>Тест1</t>
+  </si>
+  <si>
+    <t>Тест2</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>13.05</t>
+  </si>
+  <si>
+    <t>14.05</t>
+  </si>
+  <si>
+    <t>20.05</t>
+  </si>
+  <si>
+    <t>Тестовая 3</t>
+  </si>
+  <si>
+    <t>Тест3</t>
+  </si>
+  <si>
+    <t>Тестовая 4</t>
+  </si>
+  <si>
+    <t>Тест4</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>21.05</t>
   </si>
 </sst>
 </file>
@@ -1488,11 +1539,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V83"/>
+  <dimension ref="A1:V87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G79" sqref="G79"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3425,6 +3476,98 @@
         <v>360</v>
       </c>
     </row>
+    <row r="84" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
+        <v>83</v>
+      </c>
+      <c r="B84" s="2">
+        <v>90</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F84" s="2">
+        <v>1</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="2">
+        <v>84</v>
+      </c>
+      <c r="B85" s="2">
+        <v>91</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F85" s="2">
+        <v>1</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
+        <v>85</v>
+      </c>
+      <c r="B86" s="2">
+        <v>92</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F86" s="2">
+        <v>1</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="2">
+        <v>86</v>
+      </c>
+      <c r="B87" s="2">
+        <v>93</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F87" s="2">
+        <v>1</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D19" r:id="rId1"/>
@@ -3442,8 +3585,8 @@
   <dimension ref="A1:E277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C258" sqref="C258"/>
+      <pane ySplit="1" topLeftCell="A260" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E274" sqref="E274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7994,10 +8137,74 @@
         <v>335</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="269" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="270" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="271" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="268" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A268" s="3">
+        <v>267</v>
+      </c>
+      <c r="B268" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D268" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="E268" s="4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A269" s="3">
+        <v>268</v>
+      </c>
+      <c r="B269" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D269" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="E269" s="4" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A270" s="3">
+        <v>269</v>
+      </c>
+      <c r="B270" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D270" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="E270" s="4" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A271" s="3">
+        <v>270</v>
+      </c>
+      <c r="B271" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D271" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="E271" s="4" t="s">
+        <v>379</v>
+      </c>
+    </row>
     <row r="272" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="273" ht="22.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="274" ht="22.8" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="444">
   <si>
     <t>Всероссийская олимпиада школьников «Высшая проба»</t>
   </si>
@@ -1060,78 +1060,6 @@
     <t>Технокубок</t>
   </si>
   <si>
-    <t>Innopolis Open</t>
-  </si>
-  <si>
-    <t>Вузак по информатике</t>
-  </si>
-  <si>
-    <t>Олимпиада школьников по инфе и проге</t>
-  </si>
-  <si>
-    <t>Высшая проба</t>
-  </si>
-  <si>
-    <t>Бельченок</t>
-  </si>
-  <si>
-    <t>Газпром</t>
-  </si>
-  <si>
-    <t>Ломоносов</t>
-  </si>
-  <si>
-    <t>Шаг в будущее</t>
-  </si>
-  <si>
-    <t>Гранит науки</t>
-  </si>
-  <si>
-    <t>Изумруд</t>
-  </si>
-  <si>
-    <t>Когнетивка</t>
-  </si>
-  <si>
-    <t>Открытая олимпиада школьников по проге</t>
-  </si>
-  <si>
-    <t>Олимпиада школьников СПбГУ</t>
-  </si>
-  <si>
-    <t>Олимпиада КФУ</t>
-  </si>
-  <si>
-    <t>Пироговская олимпиада</t>
-  </si>
-  <si>
-    <t>Будущие исследователи - будущее науки</t>
-  </si>
-  <si>
-    <t>Олимпиада Павлова</t>
-  </si>
-  <si>
-    <t>Будущее Сибири</t>
-  </si>
-  <si>
-    <t>Олимпиада ОРМО</t>
-  </si>
-  <si>
-    <t>Росатом</t>
-  </si>
-  <si>
-    <t>Ведомственные обр орги</t>
-  </si>
-  <si>
-    <t>Твое призвание - финансист</t>
-  </si>
-  <si>
-    <t>Олимпиада Верченко</t>
-  </si>
-  <si>
-    <t>Объединенная межвуз олимпиада</t>
-  </si>
-  <si>
     <t>Тестовая 1</t>
   </si>
   <si>
@@ -1180,7 +1108,250 @@
     <t>93</t>
   </si>
   <si>
-    <t>21.05</t>
+    <t>19.05</t>
+  </si>
+  <si>
+    <t>Высшая проба - инфа</t>
+  </si>
+  <si>
+    <t>Всесиб - инфа</t>
+  </si>
+  <si>
+    <t>Вузак - инфа</t>
+  </si>
+  <si>
+    <t>Олимпиада по инфе и проге</t>
+  </si>
+  <si>
+    <t>Олимпиада СПбГУ - инфа</t>
+  </si>
+  <si>
+    <t>Открытая олимпиада по проге</t>
+  </si>
+  <si>
+    <t>Ломоносов - инфа</t>
+  </si>
+  <si>
+    <t>Когнетивка - инфа</t>
+  </si>
+  <si>
+    <t>Изумруд - инфа</t>
+  </si>
+  <si>
+    <t>Олимпиада КФУ - инфа</t>
+  </si>
+  <si>
+    <t>Гранит науки - инфа</t>
+  </si>
+  <si>
+    <t>Шаг в будущее - инфа</t>
+  </si>
+  <si>
+    <t>Газпром - инфа</t>
+  </si>
+  <si>
+    <t>Бельченок - инфа</t>
+  </si>
+  <si>
+    <t>МОШ - математика</t>
+  </si>
+  <si>
+    <t>Высшая проба - математика</t>
+  </si>
+  <si>
+    <t>МОШ - инфа</t>
+  </si>
+  <si>
+    <t>Курчатов - матеша</t>
+  </si>
+  <si>
+    <t>Ломоносов  - матеша</t>
+  </si>
+  <si>
+    <t>Воробьевы горы  - матеша</t>
+  </si>
+  <si>
+    <t>Физтех - матеша</t>
+  </si>
+  <si>
+    <t>Олимпиада СПбГУ - матеша</t>
+  </si>
+  <si>
+    <t>Всесиб - матеша</t>
+  </si>
+  <si>
+    <t>Верченко - матеша</t>
+  </si>
+  <si>
+    <t>Формула Единства - матеша</t>
+  </si>
+  <si>
+    <t>Ведомственные орги  - матеша</t>
+  </si>
+  <si>
+    <t>Межвуз - матеша</t>
+  </si>
+  <si>
+    <t>ЮМШ  - матеша</t>
+  </si>
+  <si>
+    <t>Открытая олимпиада - матеша</t>
+  </si>
+  <si>
+    <t>Открытая олимпиада - инфа</t>
+  </si>
+  <si>
+    <t>Росатом - матеша</t>
+  </si>
+  <si>
+    <t>Турнир Ломоносова - матеша</t>
+  </si>
+  <si>
+    <t>Финансист - матеша</t>
+  </si>
+  <si>
+    <t>Innopolis Open - матеша</t>
+  </si>
+  <si>
+    <t>Изумруд - матеша</t>
+  </si>
+  <si>
+    <t>САММАТ - матеша</t>
+  </si>
+  <si>
+    <t>Будущие исследователи - матеша</t>
+  </si>
+  <si>
+    <t>Олимпиада КФУ - матеша</t>
+  </si>
+  <si>
+    <t>Надежда энергетики - матеша</t>
+  </si>
+  <si>
+    <t>Шаг в будущее - матеша</t>
+  </si>
+  <si>
+    <t>Бельчонок - матеша</t>
+  </si>
+  <si>
+    <t>Innopolis Open - инфа</t>
+  </si>
+  <si>
+    <t>Пироговская - химия</t>
+  </si>
+  <si>
+    <t>Газпром - химия</t>
+  </si>
+  <si>
+    <t>Павлова - химия</t>
+  </si>
+  <si>
+    <t>Гранит науки - химия</t>
+  </si>
+  <si>
+    <t>Изумруд - химия</t>
+  </si>
+  <si>
+    <t>Бельченок - химия</t>
+  </si>
+  <si>
+    <t>Открытая химическая</t>
+  </si>
+  <si>
+    <t>Будущие исследователи - химия</t>
+  </si>
+  <si>
+    <t>Сеченовская  - химия</t>
+  </si>
+  <si>
+    <t>Высшая проба - химия</t>
+  </si>
+  <si>
+    <t>Будущее Сибири - химия</t>
+  </si>
+  <si>
+    <t>Олимпиада СПБ - химия</t>
+  </si>
+  <si>
+    <t>Олимпиада СПбГУ - химия</t>
+  </si>
+  <si>
+    <t>Всесиб - химия</t>
+  </si>
+  <si>
+    <t>Менделеевская - химия</t>
+  </si>
+  <si>
+    <t>Олимпиада КФУ - химия</t>
+  </si>
+  <si>
+    <t>Юные таланты - химия</t>
+  </si>
+  <si>
+    <t>Московская олимпиада - химия</t>
+  </si>
+  <si>
+    <t>Ломоносов - химия</t>
+  </si>
+  <si>
+    <t>Шаг в будущее - физика</t>
+  </si>
+  <si>
+    <t>Олимпиада СПбГУ - физика</t>
+  </si>
+  <si>
+    <t>Олимпиада ОРМО - физика</t>
+  </si>
+  <si>
+    <t>Турнир Ломоносова - физика</t>
+  </si>
+  <si>
+    <t>Будущее Сибири - физика</t>
+  </si>
+  <si>
+    <t>Открытая олимпиада - физика</t>
+  </si>
+  <si>
+    <t>Ломоносов - физика</t>
+  </si>
+  <si>
+    <t>Будущие исследователи - физика</t>
+  </si>
+  <si>
+    <t>Интернет-олимпиада - физика</t>
+  </si>
+  <si>
+    <t>Московская олимпиада - физика</t>
+  </si>
+  <si>
+    <t>Курчатов - физика</t>
+  </si>
+  <si>
+    <t>Воробьевы горы - физика</t>
+  </si>
+  <si>
+    <t>Ведомственные орги - физика</t>
+  </si>
+  <si>
+    <t>Высшая проба - физика</t>
+  </si>
+  <si>
+    <t>Всесиб - физика</t>
+  </si>
+  <si>
+    <t>Городская олимпиада - физика</t>
+  </si>
+  <si>
+    <t>Инженерная олимпиада - физика</t>
+  </si>
+  <si>
+    <t>Формула Единства - физика</t>
+  </si>
+  <si>
+    <t>Росатом - физика</t>
+  </si>
+  <si>
+    <t>Физтех - физика</t>
   </si>
 </sst>
 </file>
@@ -1542,8 +1713,8 @@
   <dimension ref="A1:V87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C85" sqref="C85"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1610,7 +1781,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1633,7 +1804,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>2</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1656,7 +1827,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>347</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1679,7 +1850,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>346</v>
+        <v>404</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1702,7 +1873,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>5</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1725,7 +1896,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>348</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1771,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1794,7 +1965,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>9</v>
+        <v>392</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1817,7 +1988,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1840,7 +2011,7 @@
         <v>2</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1863,7 +2034,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1886,7 +2057,7 @@
         <v>3</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1909,7 +2080,7 @@
         <v>3</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1932,7 +2103,7 @@
         <v>3</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1955,7 +2126,7 @@
         <v>3</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>353</v>
+        <v>374</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1978,7 +2149,7 @@
         <v>3</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>351</v>
+        <v>375</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2001,7 +2172,7 @@
         <v>3</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>350</v>
+        <v>376</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -2024,7 +2195,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>349</v>
+        <v>378</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -2047,7 +2218,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>5</v>
+        <v>377</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -2070,7 +2241,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>130</v>
+        <v>380</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -2093,7 +2264,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>11</v>
+        <v>381</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -2116,7 +2287,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>131</v>
+        <v>382</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -2139,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>132</v>
+        <v>383</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -2162,7 +2333,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>358</v>
+        <v>384</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -2185,7 +2356,7 @@
         <v>2</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>133</v>
+        <v>387</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -2208,7 +2379,7 @@
         <v>2</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>2</v>
+        <v>385</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -2231,7 +2402,7 @@
         <v>2</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.3">
@@ -2254,7 +2425,7 @@
         <v>2</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -2277,7 +2448,7 @@
         <v>2</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -2300,7 +2471,7 @@
         <v>2</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>137</v>
+        <v>390</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -2323,7 +2494,7 @@
         <v>2</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>9</v>
+        <v>391</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -2346,7 +2517,7 @@
         <v>2</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>365</v>
+        <v>393</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -2369,7 +2540,7 @@
         <v>2</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>139</v>
+        <v>394</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -2392,7 +2563,7 @@
         <v>3</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>367</v>
+        <v>395</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -2415,7 +2586,7 @@
         <v>3</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>4</v>
+        <v>396</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2438,7 +2609,7 @@
         <v>3</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>355</v>
+        <v>397</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -2461,7 +2632,7 @@
         <v>3</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>141</v>
+        <v>398</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -2484,7 +2655,7 @@
         <v>3</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>361</v>
+        <v>399</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2507,7 +2678,7 @@
         <v>3</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>359</v>
+        <v>400</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -2530,7 +2701,7 @@
         <v>3</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>144</v>
+        <v>401</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -2553,7 +2724,7 @@
         <v>3</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>16</v>
+        <v>402</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2576,7 +2747,7 @@
         <v>3</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>18</v>
+        <v>403</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2599,7 +2770,7 @@
         <v>1</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>232</v>
+        <v>432</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2622,7 +2793,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>5</v>
+        <v>433</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2645,7 +2816,7 @@
         <v>1</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>130</v>
+        <v>434</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2668,7 +2839,7 @@
         <v>1</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>131</v>
+        <v>435</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2691,7 +2862,7 @@
         <v>1</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>132</v>
+        <v>443</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2714,7 +2885,7 @@
         <v>1</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>365</v>
+        <v>442</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2737,7 +2908,7 @@
         <v>2</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>133</v>
+        <v>441</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2760,7 +2931,7 @@
         <v>2</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>0</v>
+        <v>437</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2783,7 +2954,7 @@
         <v>2</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>2</v>
+        <v>438</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2806,7 +2977,7 @@
         <v>2</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>234</v>
+        <v>439</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2829,7 +3000,7 @@
         <v>2</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>235</v>
+        <v>440</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2852,7 +3023,7 @@
         <v>2</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>361</v>
+        <v>431</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2875,7 +3046,7 @@
         <v>2</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>366</v>
+        <v>436</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2898,7 +3069,7 @@
         <v>2</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>11</v>
+        <v>430</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2921,7 +3092,7 @@
         <v>2</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>16</v>
+        <v>424</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2944,7 +3115,7 @@
         <v>2</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>358</v>
+        <v>425</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2967,7 +3138,7 @@
         <v>2</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>364</v>
+        <v>426</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2990,7 +3161,7 @@
         <v>2</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>139</v>
+        <v>427</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3013,7 +3184,7 @@
         <v>3</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3036,7 +3207,7 @@
         <v>3</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>9</v>
+        <v>429</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3059,7 +3230,7 @@
         <v>1</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>2</v>
+        <v>418</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3082,7 +3253,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>239</v>
+        <v>419</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -3105,7 +3276,7 @@
         <v>1</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>359</v>
+        <v>420</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3128,7 +3299,7 @@
         <v>1</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>240</v>
+        <v>421</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3151,7 +3322,7 @@
         <v>1</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>5</v>
+        <v>422</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3174,7 +3345,7 @@
         <v>1</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>11</v>
+        <v>423</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3197,7 +3368,7 @@
         <v>1</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>358</v>
+        <v>417</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3220,7 +3391,7 @@
         <v>1</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>363</v>
+        <v>415</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3243,7 +3414,7 @@
         <v>1</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>241</v>
+        <v>416</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3266,7 +3437,7 @@
         <v>2</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>0</v>
+        <v>414</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3289,7 +3460,7 @@
         <v>2</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>242</v>
+        <v>413</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3312,7 +3483,7 @@
         <v>2</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>361</v>
+        <v>412</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3335,7 +3506,7 @@
         <v>2</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>243</v>
+        <v>411</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3358,7 +3529,7 @@
         <v>2</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>350</v>
+        <v>410</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3381,7 +3552,7 @@
         <v>3</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>355</v>
+        <v>409</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3404,7 +3575,7 @@
         <v>3</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>15</v>
+        <v>408</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3427,7 +3598,7 @@
         <v>3</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>362</v>
+        <v>407</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3450,7 +3621,7 @@
         <v>3</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>17</v>
+        <v>406</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3473,7 +3644,7 @@
         <v>3</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>360</v>
+        <v>405</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3484,10 +3655,10 @@
         <v>90</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>129</v>
@@ -3496,7 +3667,7 @@
         <v>1</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3507,10 +3678,10 @@
         <v>91</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>129</v>
@@ -3519,7 +3690,7 @@
         <v>1</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3530,10 +3701,10 @@
         <v>92</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>129</v>
@@ -3542,7 +3713,7 @@
         <v>1</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3553,10 +3724,10 @@
         <v>93</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>129</v>
@@ -3565,7 +3736,7 @@
         <v>1</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -3586,7 +3757,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A260" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E274" sqref="E274"/>
+      <selection pane="bottomLeft" activeCell="I266" sqref="I266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8142,16 +8313,16 @@
         <v>267</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="C268" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="E268" s="4" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
     </row>
     <row r="269" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -8159,16 +8330,16 @@
         <v>268</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="E269" s="4" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
     </row>
     <row r="270" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -8176,16 +8347,16 @@
         <v>269</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="C270" s="3" t="s">
         <v>166</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="E270" s="4" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
     </row>
     <row r="271" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -8193,16 +8364,16 @@
         <v>270</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="C271" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D271" s="4" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="E271" s="4" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
     </row>
     <row r="272" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.3"/>
